--- a/output_by_subject/CB211.xlsx
+++ b/output_by_subject/CB211.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1037,6 +1037,50 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2001CB02</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CB211</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2001CB04</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CB211</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
